--- a/data/state_election_results/newhampshire_president.xlsx
+++ b/data/state_election_results/newhampshire_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177A0D6F-FB44-4A45-918C-B8E08C1D8942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E11DA84-B16B-514C-ACC7-9F3118CCF860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18500" yWindow="2700" windowWidth="13440" windowHeight="16940" xr2:uid="{903626BA-7805-534E-8BAB-E23DB6D05EB9}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>biden.votes</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>Coos</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -86,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -129,7 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,32 +446,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A99EDDC-2BFE-E74D-B526-A7DC8F07AA2B}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>12390</v>
@@ -488,7 +486,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>16649</v>
@@ -505,7 +503,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>33180</v>
@@ -522,7 +520,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>48533</v>
@@ -539,7 +537,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>25522</v>
@@ -556,7 +554,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>16894</v>
@@ -573,7 +571,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>122344</v>
@@ -590,7 +588,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>100064</v>
@@ -607,7 +605,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>41721</v>
@@ -624,7 +622,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>7638</v>
